--- a/data/trans_orig/ProbViv_temp-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_temp-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0110793E-3651-43E2-BB9F-8F30A66D7284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DB7F726-87F9-47C2-B780-B6B355E90934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CF6BA0D9-0659-4381-BD5D-A200BD097451}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1CEBB8A2-D43C-4EF2-AD39-7422E7FF2C26}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -272,7 +272,7 @@
     <t>99,87%</t>
   </si>
   <si>
-    <t>Hogares según si tienen problemas de temperatura en la vivienda en 2015 (Tasa respuesta: 75,96%)</t>
+    <t>Hogares según si tienen problemas de temperatura en la vivienda en 2016 (Tasa respuesta: 75,96%)</t>
   </si>
   <si>
     <t>1,27%</t>
@@ -341,271 +341,271 @@
     <t>32,11%</t>
   </si>
   <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
   </si>
   <si>
     <t>39,23%</t>
   </si>
   <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
   </si>
   <si>
     <t>35,64%</t>
   </si>
   <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
   </si>
   <si>
     <t>67,89%</t>
   </si>
   <si>
-    <t>58,39%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
+    <t>58,48%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
   </si>
   <si>
     <t>60,77%</t>
   </si>
   <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>69,84%</t>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
   </si>
   <si>
     <t>64,36%</t>
   </si>
   <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
   </si>
   <si>
     <t>46,11%</t>
   </si>
   <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
+    <t>39,7%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
   </si>
   <si>
     <t>41,42%</t>
   </si>
   <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
   </si>
   <si>
     <t>53,89%</t>
   </si>
   <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
   </si>
   <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
   </si>
   <si>
     <t>58,58%</t>
   </si>
   <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
   </si>
   <si>
     <t>36,45%</t>
   </si>
   <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
   </si>
   <si>
     <t>44,91%</t>
   </si>
   <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
   </si>
   <si>
     <t>40,41%</t>
   </si>
   <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
   </si>
   <si>
     <t>63,55%</t>
   </si>
   <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>69,68%</t>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
   </si>
   <si>
     <t>55,09%</t>
   </si>
   <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>61,82%</t>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
   </si>
   <si>
     <t>59,59%</t>
   </si>
   <si>
-    <t>54,91%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
   </si>
   <si>
     <t>38,38%</t>
   </si>
   <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
   </si>
   <si>
     <t>44,11%</t>
   </si>
   <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
   </si>
   <si>
     <t>41,09%</t>
   </si>
   <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
   </si>
   <si>
     <t>61,62%</t>
   </si>
   <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
   </si>
   <si>
     <t>55,89%</t>
   </si>
   <si>
-    <t>48,11%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
   </si>
   <si>
     <t>58,91%</t>
   </si>
   <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>63,02%</t>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>63,2%</t>
   </si>
   <si>
     <t>39,21%</t>
   </si>
   <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
   </si>
   <si>
     <t>41,99%</t>
   </si>
   <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
   </si>
   <si>
     <t>40,52%</t>
   </si>
   <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
   </si>
   <si>
     <t>60,79%</t>
   </si>
   <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
   </si>
   <si>
     <t>58,01%</t>
   </si>
   <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
   </si>
   <si>
     <t>59,48%</t>
   </si>
   <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8625BDC2-A216-43B7-AF3E-133F1B09D94D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244B3450-7E0D-4882-9E11-7473A0FA0D41}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1924,7 +1924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944D346D-B027-4457-8F4D-ABCC74F6A4CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D493D3D-9B02-40D2-9C9F-4AD5E01FD880}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2831,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{523B3108-B82A-4406-B114-502D78F5B12F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07A1B26-76C0-468D-974A-93C676E73C37}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3738,7 +3738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE51A73-0EE7-4BBA-B9BD-91DD025F4DA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8527AA-8D5B-4AB3-9B00-A06ABE19139B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/ProbViv_temp-Edad-trans_orig.xlsx
+++ b/data/trans_orig/ProbViv_temp-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DB7F726-87F9-47C2-B780-B6B355E90934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{65F53A3B-4998-4A1A-9B7A-342D279433F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1CEBB8A2-D43C-4EF2-AD39-7422E7FF2C26}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{98716FFE-7B06-43EB-A50A-671035235045}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -44,10 +44,10 @@
     <t>Hogares según si tienen problemas de temperatura en la vivienda en 2007 (Tasa respuesta: 73,1%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -80,12 +80,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>1,6%</t>
+  </si>
+  <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
     <t>0,76%</t>
   </si>
   <si>
@@ -95,57 +95,57 @@
     <t>100,0%</t>
   </si>
   <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>98,56%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
     <t>99,24%</t>
   </si>
   <si>
     <t>3-7</t>
   </si>
   <si>
+    <t>0,69%</t>
+  </si>
+  <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>0,69%</t>
-  </si>
-  <si>
     <t>0,34%</t>
   </si>
   <si>
+    <t>99,31%</t>
+  </si>
+  <si>
     <t>99,33%</t>
   </si>
   <si>
-    <t>99,31%</t>
-  </si>
-  <si>
     <t>99,66%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>1,5%</t>
+  </si>
+  <si>
     <t>1,25%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
     <t>0,68%</t>
   </si>
   <si>
+    <t>98,5%</t>
+  </si>
+  <si>
     <t>98,75%</t>
   </si>
   <si>
-    <t>98,5%</t>
-  </si>
-  <si>
     <t>99,32%</t>
   </si>
   <si>
@@ -164,21 +164,21 @@
     <t>99,57%</t>
   </si>
   <si>
+    <t>0,26%</t>
+  </si>
+  <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
     <t>0,12%</t>
   </si>
   <si>
+    <t>99,74%</t>
+  </si>
+  <si>
     <t>99,76%</t>
   </si>
   <si>
-    <t>99,74%</t>
-  </si>
-  <si>
     <t>99,88%</t>
   </si>
   <si>
@@ -188,87 +188,87 @@
     <t>Hogares según si tienen problemas de temperatura en la vivienda en 2012 (Tasa respuesta: 69,37%)</t>
   </si>
   <si>
+    <t>1,24%</t>
+  </si>
+  <si>
     <t>1,21%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
     <t>0,61%</t>
   </si>
   <si>
+    <t>98,76%</t>
+  </si>
+  <si>
     <t>98,79%</t>
   </si>
   <si>
-    <t>98,76%</t>
-  </si>
-  <si>
     <t>99,39%</t>
   </si>
   <si>
+    <t>0,83%</t>
+  </si>
+  <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
     <t>0,38%</t>
   </si>
   <si>
+    <t>99,17%</t>
+  </si>
+  <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>99,17%</t>
-  </si>
-  <si>
     <t>99,62%</t>
   </si>
   <si>
+    <t>1,38%</t>
+  </si>
+  <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>1,38%</t>
+    <t>98,62%</t>
   </si>
   <si>
     <t>98,72%</t>
   </si>
   <si>
-    <t>98,62%</t>
+    <t>1,16%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
     <t>0,53%</t>
   </si>
   <si>
+    <t>98,84%</t>
+  </si>
+  <si>
     <t>99,02%</t>
   </si>
   <si>
-    <t>98,84%</t>
-  </si>
-  <si>
     <t>99,47%</t>
   </si>
   <si>
+    <t>0,28%</t>
+  </si>
+  <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
     <t>0,13%</t>
   </si>
   <si>
+    <t>99,72%</t>
+  </si>
+  <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
     <t>99,87%</t>
   </si>
   <si>
@@ -281,51 +281,51 @@
     <t>98,73%</t>
   </si>
   <si>
+    <t>0,77%</t>
+  </si>
+  <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>0,77%</t>
+    <t>99,23%</t>
   </si>
   <si>
     <t>99,38%</t>
   </si>
   <si>
-    <t>99,23%</t>
+    <t>0,92%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
     <t>0,48%</t>
   </si>
   <si>
+    <t>99,08%</t>
+  </si>
+  <si>
     <t>98,98%</t>
   </si>
   <si>
-    <t>99,08%</t>
-  </si>
-  <si>
     <t>99,52%</t>
   </si>
   <si>
+    <t>1,12%</t>
+  </si>
+  <si>
     <t>1,08%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
     <t>0,55%</t>
   </si>
   <si>
+    <t>98,88%</t>
+  </si>
+  <si>
     <t>98,92%</t>
   </si>
   <si>
-    <t>98,88%</t>
-  </si>
-  <si>
     <t>99,45%</t>
   </si>
   <si>
@@ -338,274 +338,274 @@
     <t>Hogares según si tienen problemas de temperatura en la vivienda en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>49,58%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>58,48%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>63,31%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
   </si>
   <si>
     <t>44,91%</t>
   </si>
   <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>45,3%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>65,27%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
   </si>
   <si>
     <t>55,09%</t>
   </si>
   <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>38,38%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>61,73%</t>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>60,34%</t>
+  </si>
+  <si>
+    <t>55,29%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>52,03%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>65,99%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244B3450-7E0D-4882-9E11-7473A0FA0D41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82131427-C765-4013-B0D3-B8B721EEADF5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1186,10 +1186,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D5" s="7">
-        <v>88464</v>
+        <v>78559</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1201,10 +1201,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="I5" s="7">
-        <v>78559</v>
+        <v>88464</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1237,25 +1237,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>119</v>
+      </c>
+      <c r="D6" s="7">
+        <v>78559</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>132</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>88464</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>119</v>
-      </c>
-      <c r="I6" s="7">
-        <v>78559</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1341,10 +1341,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D8" s="7">
-        <v>188731</v>
+        <v>187246</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1356,10 +1356,10 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="I8" s="7">
-        <v>187246</v>
+        <v>188731</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -1392,25 +1392,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>279</v>
+      </c>
+      <c r="D9" s="7">
+        <v>187246</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>284</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>188731</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>279</v>
-      </c>
-      <c r="I9" s="7">
-        <v>187246</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1496,10 +1496,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="D11" s="7">
-        <v>103261</v>
+        <v>86479</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -1511,10 +1511,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="I11" s="7">
-        <v>86479</v>
+        <v>103261</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -1547,25 +1547,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>127</v>
+      </c>
+      <c r="D12" s="7">
+        <v>86479</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>153</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>103261</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>127</v>
-      </c>
-      <c r="I12" s="7">
-        <v>86479</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1651,10 +1651,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D14" s="7">
-        <v>148094</v>
+        <v>151075</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1666,10 +1666,10 @@
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="I14" s="7">
-        <v>151075</v>
+        <v>148094</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -1702,25 +1702,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>221</v>
+      </c>
+      <c r="D15" s="7">
+        <v>151075</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>223</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>148094</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>221</v>
-      </c>
-      <c r="I15" s="7">
-        <v>151075</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1806,10 +1806,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>792</v>
+        <v>746</v>
       </c>
       <c r="D17" s="7">
-        <v>528550</v>
+        <v>503359</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -1821,10 +1821,10 @@
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>746</v>
+        <v>792</v>
       </c>
       <c r="I17" s="7">
-        <v>503359</v>
+        <v>528549</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
@@ -1857,25 +1857,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>746</v>
+      </c>
+      <c r="D18" s="7">
+        <v>503359</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>792</v>
       </c>
-      <c r="D18" s="7">
-        <v>528550</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>746</v>
-      </c>
       <c r="I18" s="7">
-        <v>503359</v>
+        <v>528549</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1924,7 +1924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D493D3D-9B02-40D2-9C9F-4AD5E01FD880}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4855F3CC-E2D7-4092-8FA9-9C918CCED610}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2093,10 +2093,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D5" s="7">
-        <v>112042</v>
+        <v>104121</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -2108,10 +2108,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I5" s="7">
-        <v>104121</v>
+        <v>112043</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -2144,25 +2144,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>154</v>
+      </c>
+      <c r="D6" s="7">
+        <v>104121</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>158</v>
       </c>
-      <c r="D6" s="7">
-        <v>112042</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>154</v>
-      </c>
       <c r="I6" s="7">
-        <v>104121</v>
+        <v>112043</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2248,10 +2248,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="D8" s="7">
-        <v>193224</v>
+        <v>159344</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -2263,10 +2263,10 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="I8" s="7">
-        <v>159344</v>
+        <v>193224</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -2299,25 +2299,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>231</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159344</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>268</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>193224</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>231</v>
-      </c>
-      <c r="I9" s="7">
-        <v>159344</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2394,7 +2394,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2403,10 +2403,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="D11" s="7">
-        <v>101812</v>
+        <v>97980</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -2418,10 +2418,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="I11" s="7">
-        <v>97980</v>
+        <v>101812</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -2442,7 +2442,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -2454,25 +2454,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>138</v>
+      </c>
+      <c r="D12" s="7">
+        <v>97980</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>149</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>101812</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>138</v>
-      </c>
-      <c r="I12" s="7">
-        <v>97980</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2558,10 +2558,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="D14" s="7">
-        <v>131702</v>
+        <v>115520</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -2573,10 +2573,10 @@
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="I14" s="7">
-        <v>115520</v>
+        <v>131702</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -2609,25 +2609,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>164</v>
+      </c>
+      <c r="D15" s="7">
+        <v>115520</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>194</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>131702</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>164</v>
-      </c>
-      <c r="I15" s="7">
-        <v>115520</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2713,10 +2713,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>769</v>
+        <v>687</v>
       </c>
       <c r="D17" s="7">
-        <v>538781</v>
+        <v>476965</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -2728,10 +2728,10 @@
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>687</v>
+        <v>769</v>
       </c>
       <c r="I17" s="7">
-        <v>476965</v>
+        <v>538781</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
@@ -2764,25 +2764,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>687</v>
+      </c>
+      <c r="D18" s="7">
+        <v>476965</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>769</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>538781</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>687</v>
-      </c>
-      <c r="I18" s="7">
-        <v>476965</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2831,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07A1B26-76C0-468D-974A-93C676E73C37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC097110-3F3B-4EEB-9F3F-D5FCBFC38299}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2961,7 +2961,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2976,7 +2976,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3000,31 +3000,31 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D5" s="7">
-        <v>98267</v>
+        <v>102704</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I5" s="7">
-        <v>102704</v>
+        <v>98267</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3051,25 +3051,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>165</v>
+      </c>
+      <c r="D6" s="7">
+        <v>102704</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>150</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>98267</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>165</v>
-      </c>
-      <c r="I6" s="7">
-        <v>102704</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3155,10 +3155,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>311</v>
+        <v>248</v>
       </c>
       <c r="D8" s="7">
-        <v>210592</v>
+        <v>156265</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -3170,10 +3170,10 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>248</v>
+        <v>311</v>
       </c>
       <c r="I8" s="7">
-        <v>156265</v>
+        <v>210592</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -3206,25 +3206,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>248</v>
+      </c>
+      <c r="D9" s="7">
+        <v>156265</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>311</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>210592</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>248</v>
-      </c>
-      <c r="I9" s="7">
-        <v>156265</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3310,10 +3310,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="D11" s="7">
-        <v>132171</v>
+        <v>144314</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -3325,10 +3325,10 @@
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="I11" s="7">
-        <v>144314</v>
+        <v>132171</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
@@ -3361,25 +3361,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>207</v>
+      </c>
+      <c r="D12" s="7">
+        <v>144314</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>188</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>132171</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>207</v>
-      </c>
-      <c r="I12" s="7">
-        <v>144314</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3465,10 +3465,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D14" s="7">
-        <v>130004</v>
+        <v>122106</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -3480,10 +3480,10 @@
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I14" s="7">
-        <v>122106</v>
+        <v>130004</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
@@ -3516,25 +3516,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>170</v>
+      </c>
+      <c r="D15" s="7">
+        <v>122106</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>176</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>130004</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>170</v>
-      </c>
-      <c r="I15" s="7">
-        <v>122106</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3581,7 +3581,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3596,7 +3596,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3620,31 +3620,31 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>825</v>
+        <v>790</v>
       </c>
       <c r="D17" s="7">
-        <v>571033</v>
+        <v>525390</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>790</v>
+        <v>825</v>
       </c>
       <c r="I17" s="7">
-        <v>525390</v>
+        <v>571033</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3671,25 +3671,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>790</v>
+      </c>
+      <c r="D18" s="7">
+        <v>525390</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>825</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>571033</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>790</v>
-      </c>
-      <c r="I18" s="7">
-        <v>525390</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3738,7 +3738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8527AA-8D5B-4AB3-9B00-A06ABE19139B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B012CB-77C4-4867-B243-7C6D8AFBC835}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3856,10 +3856,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D4" s="7">
-        <v>18788</v>
+        <v>22421</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>99</v>
@@ -3871,10 +3871,10 @@
         <v>101</v>
       </c>
       <c r="H4" s="7">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I4" s="7">
-        <v>22508</v>
+        <v>19263</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>102</v>
@@ -3889,7 +3889,7 @@
         <v>75</v>
       </c>
       <c r="N4" s="7">
-        <v>41296</v>
+        <v>41683</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>105</v>
@@ -3907,10 +3907,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D5" s="7">
-        <v>39715</v>
+        <v>35090</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>108</v>
@@ -3922,10 +3922,10 @@
         <v>110</v>
       </c>
       <c r="H5" s="7">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I5" s="7">
-        <v>34861</v>
+        <v>42181</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>111</v>
@@ -3940,7 +3940,7 @@
         <v>150</v>
       </c>
       <c r="N5" s="7">
-        <v>74575</v>
+        <v>77272</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>114</v>
@@ -3958,25 +3958,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>109</v>
+      </c>
+      <c r="D6" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="7">
         <v>116</v>
       </c>
-      <c r="D6" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="7">
-        <v>109</v>
-      </c>
       <c r="I6" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3991,7 +3991,7 @@
         <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4011,10 +4011,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="D7" s="7">
-        <v>80832</v>
+        <v>55322</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>117</v>
@@ -4026,10 +4026,10 @@
         <v>119</v>
       </c>
       <c r="H7" s="7">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="I7" s="7">
-        <v>57549</v>
+        <v>81994</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>120</v>
@@ -4044,7 +4044,7 @@
         <v>217</v>
       </c>
       <c r="N7" s="7">
-        <v>138380</v>
+        <v>137316</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>123</v>
@@ -4062,10 +4062,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="D8" s="7">
-        <v>94467</v>
+        <v>103977</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>126</v>
@@ -4077,10 +4077,10 @@
         <v>128</v>
       </c>
       <c r="H8" s="7">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="I8" s="7">
-        <v>101216</v>
+        <v>100560</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>129</v>
@@ -4095,7 +4095,7 @@
         <v>317</v>
       </c>
       <c r="N8" s="7">
-        <v>195683</v>
+        <v>204537</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>132</v>
@@ -4113,25 +4113,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="7">
         <v>276</v>
       </c>
-      <c r="D9" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4146,7 +4146,7 @@
         <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4166,10 +4166,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D10" s="7">
-        <v>73483</v>
+        <v>77158</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>135</v>
@@ -4181,10 +4181,10 @@
         <v>137</v>
       </c>
       <c r="H10" s="7">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="I10" s="7">
-        <v>79473</v>
+        <v>75713</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>138</v>
@@ -4199,7 +4199,7 @@
         <v>182</v>
       </c>
       <c r="N10" s="7">
-        <v>152956</v>
+        <v>152870</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>141</v>
@@ -4217,10 +4217,10 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="D11" s="7">
-        <v>128094</v>
+        <v>96730</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>144</v>
@@ -4232,10 +4232,10 @@
         <v>146</v>
       </c>
       <c r="H11" s="7">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="I11" s="7">
-        <v>97472</v>
+        <v>135834</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>147</v>
@@ -4250,7 +4250,7 @@
         <v>294</v>
       </c>
       <c r="N11" s="7">
-        <v>225566</v>
+        <v>232564</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>150</v>
@@ -4268,25 +4268,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>234</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173888</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7">
         <v>242</v>
       </c>
-      <c r="D12" s="7">
-        <v>201577</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="7">
-        <v>234</v>
-      </c>
       <c r="I12" s="7">
-        <v>176945</v>
+        <v>211547</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4301,7 +4301,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378522</v>
+        <v>385434</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4321,10 +4321,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D13" s="7">
-        <v>111081</v>
+        <v>131662</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>153</v>
@@ -4336,10 +4336,10 @@
         <v>155</v>
       </c>
       <c r="H13" s="7">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I13" s="7">
-        <v>114507</v>
+        <v>109819</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>156</v>
@@ -4354,7 +4354,7 @@
         <v>272</v>
       </c>
       <c r="N13" s="7">
-        <v>225588</v>
+        <v>241482</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>159</v>
@@ -4372,10 +4372,10 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D14" s="7">
-        <v>178343</v>
+        <v>142796</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>162</v>
@@ -4387,10 +4387,10 @@
         <v>164</v>
       </c>
       <c r="H14" s="7">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I14" s="7">
-        <v>145107</v>
+        <v>195664</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>165</v>
@@ -4405,7 +4405,7 @@
         <v>411</v>
       </c>
       <c r="N14" s="7">
-        <v>323450</v>
+        <v>338459</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>168</v>
@@ -4423,25 +4423,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>341</v>
+      </c>
+      <c r="D15" s="7">
+        <v>274458</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="7">
         <v>342</v>
       </c>
-      <c r="D15" s="7">
-        <v>289424</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="7">
-        <v>341</v>
-      </c>
       <c r="I15" s="7">
-        <v>259614</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4456,7 +4456,7 @@
         <v>683</v>
       </c>
       <c r="N15" s="7">
-        <v>549038</v>
+        <v>579941</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4476,10 +4476,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="D16" s="7">
-        <v>284183</v>
+        <v>286563</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>171</v>
@@ -4491,10 +4491,10 @@
         <v>173</v>
       </c>
       <c r="H16" s="7">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="I16" s="7">
-        <v>274036</v>
+        <v>286789</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>174</v>
@@ -4509,7 +4509,7 @@
         <v>746</v>
       </c>
       <c r="N16" s="7">
-        <v>558220</v>
+        <v>573352</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>177</v>
@@ -4527,10 +4527,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="D17" s="7">
-        <v>440619</v>
+        <v>378593</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>180</v>
@@ -4542,10 +4542,10 @@
         <v>182</v>
       </c>
       <c r="H17" s="7">
-        <v>574</v>
+        <v>598</v>
       </c>
       <c r="I17" s="7">
-        <v>378657</v>
+        <v>474239</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>183</v>
@@ -4560,7 +4560,7 @@
         <v>1172</v>
       </c>
       <c r="N17" s="7">
-        <v>819275</v>
+        <v>852832</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>186</v>
@@ -4578,25 +4578,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>942</v>
+      </c>
+      <c r="D18" s="7">
+        <v>665156</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="7">
         <v>976</v>
       </c>
-      <c r="D18" s="7">
-        <v>724802</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="7">
-        <v>942</v>
-      </c>
       <c r="I18" s="7">
-        <v>652693</v>
+        <v>761028</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4611,7 +4611,7 @@
         <v>1918</v>
       </c>
       <c r="N18" s="7">
-        <v>1377495</v>
+        <v>1426184</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
